--- a/Analyses/Audit du site de base - La Panthere.xlsx
+++ b/Analyses/Audit du site de base - La Panthere.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babas\OneDrive\Bureau\Développement_Web\Projects\La Panthere - OpenClassroom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babas\OneDrive\Bureau\Développement_Web\Projects\La Panthere - OpenClassroom\Analyses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD9F75F-1415-4ECB-B487-B2690F106963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626A1B8D-DF76-44F4-BE85-7EFD23F1E97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>Catégorie</t>
   </si>
@@ -54,9 +54,6 @@
     <t>OK</t>
   </si>
   <si>
-    <t>Cours OpenClassrooms</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Cette Balise permet d'ajouter une </t>
     </r>
@@ -294,37 +291,980 @@
     </r>
   </si>
   <si>
-    <t>Javascript.Info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEO et Référencement naturel </t>
-  </si>
-  <si>
     <t>Balises alt mal utilisées</t>
   </si>
   <si>
-    <t>SmartKeyword</t>
-  </si>
-  <si>
     <t>SEO et Accessiblité</t>
   </si>
   <si>
-    <t>SEO et Référencement naturel</t>
-  </si>
-  <si>
     <t>SEO et Performance</t>
   </si>
   <si>
     <t>Poid des images trop grand, mauvais format d'image</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
+    <t>SEO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Retirer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> toute les utilisations de cette pratique</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remplacer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> par des noms de pages plus "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>parlants</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" par exemple "page2" deviens "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Contact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Les noms des pages sont </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>inexplicite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La balise "alt" est l'élèment </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>central</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> du réfèrencement par image  en SEO, elle est le </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>seul moyen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pour Google de mettre des mots sur les images qui </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>composent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> un site</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ici on vise un public </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>français</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> principalement il est donc dommage de se </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>priver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> de cet attribut</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Description de la société La Panthere </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>peu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> explicite </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Créer une description de moins de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>160</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> caractères à l'aide de mot clés concernant l'activité du site "La Panthère est une agence de web design basée à Lyon. Nous créons des sites web modernes, efficaces et esthétiques pour aider nos clients à se démarquer en ligne."</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Technique Malveillante : Le keyword/tag stuffing  </t>
+  </si>
+  <si>
+    <r>
+      <t>La div possédant la class keywords est cachés par le css, cette technique "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>malveillante"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> est aujourd'hui </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>détéctée</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> par les algorithmes de référencements et pourrait mettre le site sur une sorte de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"blacklist de référencement"</t>
+    </r>
+  </si>
+  <si>
+    <t>Mauvaise utilisation de la balise keywords</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ajout de balises alt décrivant </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>vraiment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> l'image</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Les </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>noms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> de page comme "page2" ou "." sont clairement une pratique a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>évité</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pour diverses raisons liées à la fois au </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Référencement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Google, à </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>L'expérience utilisateurs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ainsi qu'à la sémantique</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Absence </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>de balises sémantiques</t>
+    </r>
+  </si>
+  <si>
+    <t>Les balises sémantiques (&lt;main&gt; &lt;aside&gt; &lt;section&gt;) ont un role dans le référencement naturel du site, ici on utilise uniquement des divs</t>
+  </si>
+  <si>
+    <t>Remplacer certaines div par des éléments en accord avec la sémantique</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Les fichiers </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> et </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ne sont pas minifiés</t>
+    </r>
+  </si>
+  <si>
+    <t>Utilisation d'images pour afficher des paragraphes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Les </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>remplacer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> par des balises textes comme les </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">headers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ou les</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> paragraphes</t>
+    </r>
+  </si>
+  <si>
+    <t>Accessibilité</t>
+  </si>
+  <si>
+    <t>Trop peu de contraste</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Une </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>refonte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> du design du site pour un rendu orienté sur le</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> noir et blanc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> avec une seule autre couleur principale (au choix, ici ce sera </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#faa332</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ) afin qu'il passe la validation </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>wave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> avec plus points</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Utiliser un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> permettant de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>minifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ses fichiers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Le </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>manque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>contraste</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sur le site fait que des personnes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>malvoyantes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pourrait être en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>difficulté</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> en l'utilisant </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ces </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>images</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ajoutent du temps de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>chargement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> et ne permettent pas à Google de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>connaitre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> le contenu du texte qu'elle </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>contiennent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ce qui peut avoir un impact sur le référencement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Les fichiers </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> et </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> minifés permettent un grand </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>gain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> de performence et donc de rapidité par rapport à leur </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>homologues</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> non-minifiés</t>
+    </r>
+  </si>
+  <si>
+    <t>La description : "Agence La Panthère - Agence web basée à Lyon." Doit être amélioré car elle est inutile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créer une nouvelle description de l'entreprise plus claire et plus précise pour améliorer le SEO et La compréhension instantanée de la page </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Utiliser le format d'image </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WebP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pour les images </t>
+    </r>
+  </si>
+  <si>
+    <t>Suppression de la balise keywords</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Les images trop </t>
     </r>
     <r>
@@ -396,989 +1336,46 @@
     </r>
   </si>
   <si>
-    <t>AntheDesign</t>
-  </si>
-  <si>
-    <t>SEO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Retirer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> toute les utilisations de cette pratique</t>
-    </r>
-  </si>
-  <si>
-    <t>SemRush</t>
-  </si>
-  <si>
-    <t>SEO et Référencement Naturel</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Remplacer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> par des noms de pages plus "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>parlants</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>" par exemple "page2" deviens "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Contact</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <t>AudreyTips</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Les noms des pages sont </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>inexplicite</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">La balise "alt" est l'élèment </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>central</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> du réfèrencement par image  en SEO, elle est le </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>seul moyen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> pour Google de mettre des mots sur les images qui </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>composent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> un site</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ici on vise un public </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>français</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> principalement il est donc dommage de se </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>priver</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> de cet attribut</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Description de la société La Panthere </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>peu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> explicite </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Créer une description de moins de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>160</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> caractères à l'aide de mot clés concernant l'activité du site "La Panthère est une agence de web design basée à Lyon. Nous créons des sites web modernes, efficaces et esthétiques pour aider nos clients à se démarquer en ligne."</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Technique Malveillante : Le keyword/tag stuffing  </t>
-  </si>
-  <si>
-    <r>
-      <t>La div possédant la class keywords est cachés par le css, cette technique "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>malveillante"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> est aujourd'hui </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>détéctée</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> par les algorithmes de référencements et pourrait mettre le site sur une sorte de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"blacklist de référencement"</t>
-    </r>
-  </si>
-  <si>
-    <t>Mauvaise utilisation de la balise keywords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cette balise permet un référencement selon les sujets de son site, ils est donc mieux d'avoir peu de keywords pertinent plutôt que beaucoups impértinents </t>
-  </si>
-  <si>
-    <t>Modifier le content de la balise keywords</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ajout de balises alt décrivant </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>vraiment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> l'image</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Les </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>noms</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> de page comme "page2" ou "." sont clairement une pratique a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>évité</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> pour diverses raisons liées à la fois au </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Référencement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Google, à </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>L'expérience utilisateurs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ainsi qu'à la sémantique</t>
-    </r>
-  </si>
-  <si>
-    <t>HubSpot</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Absence </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>de balises sémantiques</t>
-    </r>
-  </si>
-  <si>
-    <t>Les balises sémantiques (&lt;main&gt; &lt;aside&gt; &lt;section&gt;) ont un role dans le référencement naturel du site, ici on utilise uniquement des divs</t>
-  </si>
-  <si>
-    <t>Remplacer certaines div par des éléments en accord avec la sémantique</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Les fichiers </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CSS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> et </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>JS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ne sont pas minifiés</t>
-    </r>
-  </si>
-  <si>
-    <t>Minifier</t>
-  </si>
-  <si>
-    <t>Utilisation d'images pour afficher des paragraphes</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Les </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>remplacer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> par des balises textes comme les </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">headers </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ou les</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> paragraphes</t>
-    </r>
-  </si>
-  <si>
-    <t>Accessibilité</t>
-  </si>
-  <si>
-    <t>Trop peu de contraste</t>
-  </si>
-  <si>
-    <t>Wave</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Une </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>refonte</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> du design du site pour un rendu orienté sur le</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> noir et blanc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> avec une seule autre couleur principale (au choix, ici ce sera </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#faa332</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ) afin qu'il passe la validation </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>wave</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> avec plus points</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Utiliser un </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>service</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> permettant de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>minifier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ses fichiers</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Le </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>manque</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>contraste</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sur le site fait que des personnes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>malvoyantes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> pourrait être en </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>difficulté</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> en l'utilisant </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ces </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>images</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ajoutent du temps de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>chargement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> et ne permettent pas à Google de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>connaitre</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> le contenu du texte qu'elle </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>contiennent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ce qui peut avoir un impact sur le référencement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Les fichiers </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>JS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> et </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CSS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> minifés permettent un grand </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>gain</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> de performence et donc de rapidité par rapport à leur </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>homologues</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> non-minifiés</t>
-    </r>
-  </si>
-  <si>
-    <t>La description : "Agence La Panthère - Agence web basée à Lyon." Doit être amélioré car elle est inutile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créer une nouvelle description de l'entreprise plus claire et plus précise pour améliorer le SEO et La compréhension instantanée de la page </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Utiliser le format d'image </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>WebP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> pour les images </t>
-    </r>
+    <t>Cette balise permet un référencement selon les sujets de son site, cependant elle a été rendue obsolète depuis quelques années déjà</t>
+  </si>
+  <si>
+    <t>SmartKeyword : https://smartkeyword.io/seo-on-page-balise-meta-description/</t>
+  </si>
+  <si>
+    <t>Seoptimer : https://www.seoptimer.com/fr/blog/html-lang/</t>
+  </si>
+  <si>
+    <t>Webrankinfo : https://www.webrankinfo.com/dossiers/debutants/meta-keywords</t>
+  </si>
+  <si>
+    <t>Javascript.Info : https://fr.javascript.info/script-async-defer</t>
+  </si>
+  <si>
+    <t>SmartKeyword : https://smartkeyword.io/en/seo-on-page-images-alt-attribute/</t>
+  </si>
+  <si>
+    <t>SmartKeyword : https://smartkeyword.io/seo-on-page-images-attribut-alt/</t>
+  </si>
+  <si>
+    <t>SemRush : https://www.semrush.com/blog/black-hat-seo/#header9</t>
+  </si>
+  <si>
+    <t>SmartKeyword : https://smartkeyword.io/en/seo-on-page-title-tag/</t>
+  </si>
+  <si>
+    <t>SemRush : https://www.semrush.com/blog/semantic-html5-guide/</t>
+  </si>
+  <si>
+    <t>SmartKeyword : https://smartkeyword.io/en/seo-on-page-writing-for-the-web/</t>
+  </si>
+  <si>
+    <t>Minifier : https://www.minifier.org/</t>
+  </si>
+  <si>
+    <t>Holly Pryce : https://hollypryce.com/text-images/</t>
+  </si>
+  <si>
+    <t>Résultats Wave (que vous pouvez voir sur l'autre document ou alors faire les tests vous-mêmes sur les deux versions du site à cette adresse : https://wave.webaim.org/ )</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1725,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1781,262 +1778,262 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
